--- a/web/uploads/Тест.xlsx
+++ b/web/uploads/Тест.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17" count="17">
   <si>
     <t>ID</t>
   </si>
@@ -45,9 +45,6 @@
     <t>4 - 6</t>
   </si>
   <si>
-    <t>safd</t>
-  </si>
-  <si>
     <t>4 - 7</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>75</t>
-  </si>
-  <si>
-    <t>asdf</t>
   </si>
   <si>
     <t>KUG1</t>
@@ -163,7 +157,7 @@
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
@@ -179,6 +173,9 @@
     <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
     </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -191,7 +188,7 @@
   <dimension ref="A1:AMK16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -316,8 +313,10 @@
           <t>0100400000200</t>
         </is>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>6</v>
+      <c r="F3" s="4" t="inlineStr">
+        <is>
+          <t>safd</t>
+        </is>
       </c>
       <c r="G3" s="4" t="s">
         <v>1</v>
@@ -332,12 +331,12 @@
         <v>4</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1025">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
+      <c r="A4" s="2">
+        <v>123213</v>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
@@ -361,19 +360,19 @@
         <v>1251</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:1025">
@@ -404,7 +403,7 @@
         <v>323</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H5" s="4" t="s">
         <v>2</v>
@@ -447,19 +446,19 @@
         <v>323</v>
       </c>
       <c r="G6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="J6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="K6" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1025">
@@ -496,13 +495,13 @@
         <v>2</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="K7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1025">
@@ -572,19 +571,19 @@
         <v>1251</v>
       </c>
       <c r="G9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I9" s="4" t="s">
+      <c r="J9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="K9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:1025">
@@ -609,23 +608,25 @@
           <t>0100300000400</t>
         </is>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>15</v>
+      <c r="F10" s="4" t="inlineStr">
+        <is>
+          <t>asdf</t>
+        </is>
       </c>
       <c r="G10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4" t="s">
+      <c r="J10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:1025">
@@ -654,13 +655,13 @@
         <v>1604</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J11" s="4" t="inlineStr">
         <is>
@@ -668,7 +669,7 @@
         </is>
       </c>
       <c r="K11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:1025">
@@ -681,7 +682,7 @@
         </is>
       </c>
       <c r="C12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
@@ -697,19 +698,19 @@
         <v>1251</v>
       </c>
       <c r="G12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4" t="s">
+      <c r="J12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1025">
@@ -738,24 +739,24 @@
         <v>1251</v>
       </c>
       <c r="G13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I13" s="4" t="s">
+      <c r="J13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K13" s="4" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="14" spans="1:1025">
-      <c r="A14" s="2" t="s">
-        <v>6</v>
+      <c r="A14" s="2">
+        <v>213213213</v>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
@@ -779,7 +780,7 @@
         <v>1604</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>2</v>
@@ -790,10 +791,10 @@
         </is>
       </c>
       <c r="J14" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:1025">
@@ -845,7 +846,7 @@
         </is>
       </c>
       <c r="C16" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
@@ -861,19 +862,19 @@
         <v>1251</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>14</v>
-      </c>
       <c r="K16" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -893,10 +894,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AMK1"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -904,7 +905,98 @@
     <col min="1" max="1025" style="0" width="10.45" bestFit="1" customWidth="1"/>
     <col min="1026" max="16384" style="1" width="9.142307692307693"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1025" ht="13.5">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>City</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" spans="1:1025" ht="13.5">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Смоленск</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="inlineStr">
+        <is>
+          <t>Имя 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" spans="1:1025" ht="13.5">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Пермь</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>Имя 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" spans="1:1025" ht="13.5">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Владивосток</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="inlineStr">
+        <is>
+          <t>Имя 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" spans="1:1025" ht="13.5">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Волгоград</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Имя 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" spans="1:1025" ht="13.5">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Имя 5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <printOptions/>
   <pageMargins left="1" right="1" top="1.66666666666667" bottom="1.66666666666667" header="1" footer="1"/>
